--- a/medicine/Enfance/Sigrid_Baffert/Sigrid_Baffert.xlsx
+++ b/medicine/Enfance/Sigrid_Baffert/Sigrid_Baffert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sigrid Baffert, née à Lyon le 31 juillet 1972, est une écrivaine et parolière française.
 </t>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parallèlement à ses études de cinéma et de théâtre, elle écrit des chansons et des histoires pour enfants, avant de s'installer à Paris. Ses nombreuses vacations dans les musées lui inspirent la chanson Ballade pour une gardienne de musée, interprétée par Serge Reggiani. Depuis 1999, elle se consacre entièrement à l’écriture et la création pour tous les âges, entre romans, albums et spectacles musicaux. Elle anime aussi des ateliers d'écriture[1].
-Son premier roman En roues libres, édité en 1999, aborde le thème du handicap. Ces ouvriers aux dents de lait, paru en 2001, met l'accent sur le travail des enfants. Avec des si on mettrait Chicago dans une canette de Coca a reçu le Prix du roman Jeunesse 2002 et a été sélectionné pour le 16e Prix des Incorruptibles[2].
-De 2007 à 2011, elle collabore à un projet de nouvelles croisées, la série blue Cerises[3], avec trois autres auteurs : Cécile Roumiguière (directrice de collection), Maryvonne Rippert et Jean-Michel Payet.
-En 2009, elle a écrit Halb, l'autre-moitié[4], un conte musical aux accents klezmers avec le clarinettiste et compositeur Alexis Ciesla[5], repris depuis 2014 sur scène par le Collectif de l'Autre Moitié.
-Le livre-CD de Halb paru en 2014 aux éditions des Braques /Victorie Music et raconté par Elsa Zylberstein a été nommé Coup de cœur de l'Académie Charles-Cros 2014[6], Coup de cœur l’A.D.E.M, Association pour le Développement de l’Éveil Musical, et a reçu le Prix du livre audio jeunesse 2014 "Lire dans le Noir - Radio France"[7],[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parallèlement à ses études de cinéma et de théâtre, elle écrit des chansons et des histoires pour enfants, avant de s'installer à Paris. Ses nombreuses vacations dans les musées lui inspirent la chanson Ballade pour une gardienne de musée, interprétée par Serge Reggiani. Depuis 1999, elle se consacre entièrement à l’écriture et la création pour tous les âges, entre romans, albums et spectacles musicaux. Elle anime aussi des ateliers d'écriture.
+Son premier roman En roues libres, édité en 1999, aborde le thème du handicap. Ces ouvriers aux dents de lait, paru en 2001, met l'accent sur le travail des enfants. Avec des si on mettrait Chicago dans une canette de Coca a reçu le Prix du roman Jeunesse 2002 et a été sélectionné pour le 16e Prix des Incorruptibles.
+De 2007 à 2011, elle collabore à un projet de nouvelles croisées, la série blue Cerises, avec trois autres auteurs : Cécile Roumiguière (directrice de collection), Maryvonne Rippert et Jean-Michel Payet.
+En 2009, elle a écrit Halb, l'autre-moitié, un conte musical aux accents klezmers avec le clarinettiste et compositeur Alexis Ciesla, repris depuis 2014 sur scène par le Collectif de l'Autre Moitié.
+Le livre-CD de Halb paru en 2014 aux éditions des Braques /Victorie Music et raconté par Elsa Zylberstein a été nommé Coup de cœur de l'Académie Charles-Cros 2014, Coup de cœur l’A.D.E.M, Association pour le Développement de l’Éveil Musical, et a reçu le Prix du livre audio jeunesse 2014 "Lire dans le Noir - Radio France",.
 En 2014, avec les Éditions des Éléphants créées par Ilona Meyer et Caroline Drouault, elle commence son tandem artistique avec l'illustratrice Sandrine Bonini autour de la série d'albums de docu-fiction Igor et Souky qui mêle aventures et visites des monuments et sites remarquables de France, sur un concept original d'Ilona Meyer. 
 En 2018, en collaboration avec le compositeur Alexis Ciesla, elle écrit Loin de Garbo, un conte de l'exil teinté de musiques tsiganes et de jazz qui se déploie sous deux formes : un spectacle musical interprété par le Collectif de l'Autre Moitié, (mise en scène de Mélina Prost et lumières de Jérémy Ravoux) et un livre-CD paru aux éditions des Braques / Victorie Music (interprété aussi par le Collectif de l'Autre Moitié), illustré par Natali Fortier et raconté par Jean-Pierre Darroussin.
-Loin de Garbo a reçu le Grand Prix de l'Académie Charles-Cros 2018[9] ainsi que le Prix du livre audio jeunesse Lire dans le Noir - France Culture 2019. Depuis sa création, Loin de Garbo a voyagé dans l’Hexagone, avec, entre autres, Le Festival Jazz de de la Villette et le théâtre de la Reine Blanche à Paris, Le Festi’val de Marne, Le Moulin de Brainan, Les Pestacles de Vincennes, l’Espace Culturel Louis Aragon de Saint Vallier, le théâtre de la Bourboule, Yzeurespace, le Rize de Villeurbanne, le théâtre les Salins de Martigues, jusqu’à L’Espace Alya au festival off d’Avignon en 2023.
+Loin de Garbo a reçu le Grand Prix de l'Académie Charles-Cros 2018 ainsi que le Prix du livre audio jeunesse Lire dans le Noir - France Culture 2019. Depuis sa création, Loin de Garbo a voyagé dans l’Hexagone, avec, entre autres, Le Festival Jazz de de la Villette et le théâtre de la Reine Blanche à Paris, Le Festi’val de Marne, Le Moulin de Brainan, Les Pestacles de Vincennes, l’Espace Culturel Louis Aragon de Saint Vallier, le théâtre de la Bourboule, Yzeurespace, le Rize de Villeurbanne, le théâtre les Salins de Martigues, jusqu’à L’Espace Alya au festival off d’Avignon en 2023.
 En 2019, elle se tourne aussi vers le théâtre, avec l'écriture d'une pièce pour la Compagnie les gOsses, Les Falopes, mise en scène par Karine Dedeurwaerder. La pièce sera jouée à l'automne 2020 à La Chapelle Théâtre d'Amiens et à la Buanderie de Corbie (Picardie). Une pièce en un acte pour cinq comédiennes et un comédien, avec Hélène Cauët, Caroline Corme, Marie-Béatrice Dardenne, Morgane Grzegorski, Stéphane Piasentin et Marianne Wolfsohn. Création lumière : Miguel Acoulon, création costumes : Bertrand Sachy, création décor : Alexandrine Rollin, création marionnettes : Jurate Trimakaite, photos : Atelier CompÖte.
 </t>
         </is>
